--- a/script/C-VIDEO测试用例.xlsx
+++ b/script/C-VIDEO测试用例.xlsx
@@ -11,7 +11,7 @@
     <sheet name="管理中心" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">安尼平台!$B$1:$K$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">安尼平台!$A$1:$L$42</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -1707,64 +1707,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2073,8 +2073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2133,7 +2134,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="94.5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="10">
@@ -2167,20 +2168,20 @@
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="81">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38">
         <v>2</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="41">
         <v>1.2</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="39" t="s">
         <v>144</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -2189,37 +2190,37 @@
       <c r="H3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="25"/>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:12" ht="67.5">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="9" t="s">
         <v>55</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="25"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:12" ht="81">
-      <c r="A5" s="26"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="10">
         <v>3</v>
       </c>
@@ -2253,7 +2254,7 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="162">
-      <c r="A6" s="26"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="10">
         <v>4</v>
       </c>
@@ -2285,7 +2286,7 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="94.5">
-      <c r="A7" s="26"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="10">
         <v>5</v>
       </c>
@@ -2316,20 +2317,20 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="81">
-      <c r="A8" s="26"/>
-      <c r="B8" s="35">
+      <c r="A8" s="37"/>
+      <c r="B8" s="29">
         <v>6</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="27">
         <v>1.6</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -2338,37 +2339,37 @@
       <c r="H8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="31"/>
+      <c r="K8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="67.5">
-      <c r="A9" s="26"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="22" t="s">
         <v>218</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="32"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" ht="216">
-      <c r="A10" s="26"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="10">
         <v>7</v>
       </c>
@@ -2402,7 +2403,7 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="81">
-      <c r="A11" s="26"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="10">
         <v>8</v>
       </c>
@@ -2434,7 +2435,7 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="67.5">
-      <c r="A12" s="26"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="10">
         <v>9</v>
       </c>
@@ -2468,7 +2469,7 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="162">
-      <c r="A13" s="26"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="10">
         <v>10</v>
       </c>
@@ -2502,20 +2503,20 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" ht="67.5">
-      <c r="A14" s="26"/>
-      <c r="B14" s="35">
+      <c r="A14" s="37"/>
+      <c r="B14" s="29">
         <v>11</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="27">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="27" t="s">
         <v>171</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -2524,35 +2525,35 @@
       <c r="H14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="41"/>
-      <c r="K14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="31"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12" ht="67.5">
-      <c r="A15" s="26"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="22" t="s">
         <v>222</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12" ht="162">
-      <c r="A16" s="26"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="10">
         <v>12</v>
       </c>
@@ -2586,7 +2587,7 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" ht="202.5">
-      <c r="A17" s="26"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="10">
         <v>13</v>
       </c>
@@ -2618,7 +2619,7 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="175.5">
-      <c r="A18" s="26"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="10">
         <v>14</v>
       </c>
@@ -2652,7 +2653,7 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="189">
-      <c r="A19" s="26"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="10">
         <v>15</v>
       </c>
@@ -2684,7 +2685,7 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="94.5">
-      <c r="A20" s="26"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="10">
         <v>16</v>
       </c>
@@ -2718,7 +2719,7 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="81">
-      <c r="A21" s="26"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="10">
         <v>17</v>
       </c>
@@ -2750,7 +2751,7 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="135">
-      <c r="A22" s="26"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="10">
         <v>18</v>
       </c>
@@ -2784,20 +2785,20 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="175.5">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38">
         <v>19</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="41">
         <v>1.19</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="39" t="s">
         <v>184</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -2806,37 +2807,37 @@
       <c r="H23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="K23" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="25"/>
+      <c r="K23" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:12" ht="175.5">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="9" t="s">
         <v>225</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="25"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="1:12" ht="94.5">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="10">
@@ -2868,7 +2869,7 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="162">
-      <c r="A26" s="26"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="10">
         <v>21</v>
       </c>
@@ -2900,7 +2901,7 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="81">
-      <c r="A27" s="26"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="10">
         <v>22</v>
       </c>
@@ -2932,7 +2933,7 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="67.5">
-      <c r="A28" s="26"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="10">
         <v>23</v>
       </c>
@@ -2966,7 +2967,7 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="135">
-      <c r="A29" s="26"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="10">
         <v>24</v>
       </c>
@@ -3000,7 +3001,7 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="121.5">
-      <c r="A30" s="26"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="10">
         <v>25</v>
       </c>
@@ -3034,20 +3035,20 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="175.5">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38">
         <v>26</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="41">
         <v>2.7</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="39" t="s">
         <v>184</v>
       </c>
       <c r="G31" s="9" t="s">
@@ -3056,37 +3057,37 @@
       <c r="H31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="K31" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L31" s="25"/>
+      <c r="K31" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" s="39"/>
     </row>
     <row r="32" spans="1:12" ht="175.5">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="9" t="s">
         <v>103</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="25"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="39"/>
     </row>
     <row r="33" spans="1:12" ht="324">
-      <c r="A33" s="26"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="10">
         <v>27</v>
       </c>
@@ -3120,7 +3121,7 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="81">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="37" t="s">
         <v>112</v>
       </c>
       <c r="B34" s="10">
@@ -3152,7 +3153,7 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="81">
-      <c r="A35" s="26"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="10">
         <v>29</v>
       </c>
@@ -3186,7 +3187,7 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="67.5">
-      <c r="A36" s="26"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="10">
         <v>30</v>
       </c>
@@ -3220,7 +3221,7 @@
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="81">
-      <c r="A37" s="26"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="10">
         <v>31</v>
       </c>
@@ -3252,7 +3253,7 @@
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="108">
-      <c r="A38" s="26"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="10">
         <v>32</v>
       </c>
@@ -3284,7 +3285,7 @@
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="162">
-      <c r="A39" s="26"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="10">
         <v>33</v>
       </c>
@@ -3318,7 +3319,7 @@
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="81">
-      <c r="A40" s="26"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="10">
         <v>34</v>
       </c>
@@ -3350,7 +3351,7 @@
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="108">
-      <c r="A41" s="26"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="10">
         <v>35</v>
       </c>
@@ -3384,7 +3385,7 @@
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="229.5">
-      <c r="A42" s="26"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="10">
         <v>36</v>
       </c>
@@ -3414,7 +3415,40 @@
       <c r="L42" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L42"/>
   <mergeCells count="48">
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="B14:B15"/>
@@ -3431,38 +3465,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A2:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -3482,7 +3484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
